--- a/nr-add-renderedDosageInstruction/ig/StructureDefinition-fr-medication-reconciliation-composition.xlsx
+++ b/nr-add-renderedDosageInstruction/ig/StructureDefinition-fr-medication-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T15:44:18+00:00</t>
+    <t>2025-08-12T15:47:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
